--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1801212.464456321</v>
+        <v>-1803785.210401184</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14440548.4147905</v>
+        <v>14440548.41479051</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>341.1569118905547</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>313.1061118477571</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2991159687855</v>
+        <v>365.2991159687854</v>
       </c>
       <c r="G11" t="n">
-        <v>370.2816430040587</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.979336138311574</v>
       </c>
       <c r="I11" t="n">
-        <v>36.11779872993456</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>88.95923584271591</v>
+        <v>88.9592358427158</v>
       </c>
       <c r="T11" t="n">
-        <v>166.4420886499518</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>92.20334405597427</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>307.664038944487</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>328.154170905543</v>
       </c>
       <c r="Y11" t="n">
-        <v>344.6610088831277</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="12">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>124.9562538769414</v>
+        <v>124.9562538769413</v>
       </c>
       <c r="C12" t="n">
-        <v>131.1315692153898</v>
+        <v>131.1315692153897</v>
       </c>
       <c r="D12" t="n">
-        <v>105.8681357917128</v>
+        <v>105.8681357917127</v>
       </c>
       <c r="E12" t="n">
-        <v>116.068150682475</v>
+        <v>116.0681506824749</v>
       </c>
       <c r="F12" t="n">
-        <v>103.492282620458</v>
+        <v>103.4922826204579</v>
       </c>
       <c r="G12" t="n">
-        <v>93.92379679477337</v>
+        <v>93.92379679477328</v>
       </c>
       <c r="H12" t="n">
-        <v>52.86103687007936</v>
+        <v>52.86103687007927</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,22 +1497,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>95.87721426077786</v>
+        <v>95.87721426077778</v>
       </c>
       <c r="T12" t="n">
-        <v>151.1600596356021</v>
+        <v>151.160059635602</v>
       </c>
       <c r="U12" t="n">
-        <v>184.24321608466</v>
+        <v>184.2432160846599</v>
       </c>
       <c r="V12" t="n">
         <v>191.2236573764993</v>
       </c>
       <c r="W12" t="n">
-        <v>210.1180533879937</v>
+        <v>210.1180533879936</v>
       </c>
       <c r="X12" t="n">
-        <v>164.1960554305516</v>
+        <v>164.1960554305515</v>
       </c>
       <c r="Y12" t="n">
         <v>164.1057660043784</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.2550504090114</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>125.6698913257018</v>
       </c>
       <c r="D13" t="n">
-        <v>107.0385432452864</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8570328736432</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>124.8691158536042</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>67.41317437960819</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.25062307589241</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.5156867721642</v>
+        <v>155.5156867721641</v>
       </c>
       <c r="T13" t="n">
-        <v>132.3818864046258</v>
+        <v>179.767579164388</v>
       </c>
       <c r="U13" t="n">
-        <v>244.6578304709143</v>
+        <v>244.6578304709142</v>
       </c>
       <c r="V13" t="n">
-        <v>210.5607135509021</v>
+        <v>185.0317818571027</v>
       </c>
       <c r="W13" t="n">
-        <v>244.9460685636651</v>
+        <v>244.946068563665</v>
       </c>
       <c r="X13" t="n">
-        <v>184.1327256161112</v>
+        <v>184.1327256161111</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.1569118905547</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C14" t="n">
-        <v>313.7420842737026</v>
+        <v>13.6340478400262</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>340.3534402993359</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2991159687855</v>
+        <v>365.2991159687854</v>
       </c>
       <c r="G14" t="n">
-        <v>369.3447958805276</v>
+        <v>369.3447958805274</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>67.61083201524991</v>
+        <v>67.61083201524985</v>
       </c>
       <c r="T14" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>209.418242185976</v>
       </c>
       <c r="V14" t="n">
-        <v>286.175328697209</v>
+        <v>286.1753286972089</v>
       </c>
       <c r="W14" t="n">
-        <v>307.6640389444871</v>
+        <v>307.664038944487</v>
       </c>
       <c r="X14" t="n">
-        <v>328.1541709055431</v>
+        <v>328.154170905543</v>
       </c>
       <c r="Y14" t="n">
-        <v>344.6610088831277</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1746,7 +1746,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.2550504090114</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C16" t="n">
-        <v>125.6698913257019</v>
+        <v>125.6698913257018</v>
       </c>
       <c r="D16" t="n">
-        <v>107.0385432452864</v>
+        <v>107.0385432452863</v>
       </c>
       <c r="E16" t="n">
         <v>104.8570328736432</v>
       </c>
       <c r="F16" t="n">
-        <v>103.8441182500053</v>
+        <v>103.8441182500052</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>124.4488784861022</v>
       </c>
       <c r="H16" t="n">
-        <v>103.1780851413949</v>
+        <v>103.1780851413948</v>
       </c>
       <c r="I16" t="n">
-        <v>54.77549063691217</v>
+        <v>54.7754906369121</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.35522289712141</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>148.192095558516</v>
+        <v>148.1920955585159</v>
       </c>
       <c r="T16" t="n">
-        <v>177.9720195032433</v>
+        <v>96.62967263419687</v>
       </c>
       <c r="U16" t="n">
-        <v>244.634908432687</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V16" t="n">
-        <v>210.5607135509021</v>
+        <v>210.560713550902</v>
       </c>
       <c r="W16" t="n">
-        <v>244.9460685636651</v>
+        <v>244.946068563665</v>
       </c>
       <c r="X16" t="n">
-        <v>184.1327256161112</v>
+        <v>184.1327256161111</v>
       </c>
       <c r="Y16" t="n">
-        <v>172.7590322991028</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U17" t="n">
         <v>153.310451730797</v>
@@ -1923,7 +1923,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883145</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>267.5881715429026</v>
       </c>
       <c r="D20" t="n">
-        <v>256.9983213925789</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E20" t="n">
         <v>284.2456498441568</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U20" t="n">
         <v>153.310451730797</v>
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.9994691657079</v>
+        <v>134.999469165707</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383229</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333689</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T22" t="n">
         <v>121.8642290480642</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T23" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U23" t="n">
         <v>153.310451730797</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851098</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.14725995383229</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.08430510333689</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T25" t="n">
         <v>121.8642290480642</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>326.6260512083015</v>
+        <v>326.6260512083016</v>
       </c>
       <c r="C26" t="n">
-        <v>309.1651013158285</v>
+        <v>309.1651013158286</v>
       </c>
       <c r="D26" t="n">
-        <v>298.5752511655039</v>
+        <v>298.575251165504</v>
       </c>
       <c r="E26" t="n">
-        <v>325.8225796170827</v>
+        <v>325.8225796170828</v>
       </c>
       <c r="F26" t="n">
-        <v>350.7682552865323</v>
+        <v>350.7682552865325</v>
       </c>
       <c r="G26" t="n">
-        <v>354.8139351982744</v>
+        <v>354.8139351982745</v>
       </c>
       <c r="H26" t="n">
-        <v>238.4999739321414</v>
+        <v>238.4999739321415</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.07997133299673</v>
+        <v>53.07997133299686</v>
       </c>
       <c r="T26" t="n">
-        <v>147.810179684441</v>
+        <v>147.8101796844412</v>
       </c>
       <c r="U26" t="n">
-        <v>194.8873815037229</v>
+        <v>194.887381503723</v>
       </c>
       <c r="V26" t="n">
-        <v>271.6444680149558</v>
+        <v>271.6444680149559</v>
       </c>
       <c r="W26" t="n">
-        <v>293.1331782622339</v>
+        <v>293.133178262234</v>
       </c>
       <c r="X26" t="n">
-        <v>313.6233102232899</v>
+        <v>313.62331022329</v>
       </c>
       <c r="Y26" t="n">
-        <v>330.1301482008745</v>
+        <v>330.1301482008746</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247664</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>123.7241897267582</v>
+        <v>123.7241897267583</v>
       </c>
       <c r="C28" t="n">
-        <v>111.1390306434487</v>
+        <v>111.1390306434488</v>
       </c>
       <c r="D28" t="n">
-        <v>92.50768256303326</v>
+        <v>92.50768256303337</v>
       </c>
       <c r="E28" t="n">
-        <v>90.32617219139007</v>
+        <v>90.32617219139019</v>
       </c>
       <c r="F28" t="n">
-        <v>89.31325756775215</v>
+        <v>89.31325756775226</v>
       </c>
       <c r="G28" t="n">
-        <v>109.9180178038491</v>
+        <v>109.9180178038492</v>
       </c>
       <c r="H28" t="n">
-        <v>88.64722445914168</v>
+        <v>88.6472244591418</v>
       </c>
       <c r="I28" t="n">
-        <v>40.244629954659</v>
+        <v>40.24462995465912</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>32.82436221486823</v>
+        <v>32.82436221486836</v>
       </c>
       <c r="S28" t="n">
-        <v>133.6612348762628</v>
+        <v>133.6612348762629</v>
       </c>
       <c r="T28" t="n">
-        <v>163.4411588209901</v>
+        <v>163.4411588209902</v>
       </c>
       <c r="U28" t="n">
-        <v>230.1040477504338</v>
+        <v>230.1040477504339</v>
       </c>
       <c r="V28" t="n">
-        <v>196.0298528686489</v>
+        <v>196.029852868649</v>
       </c>
       <c r="W28" t="n">
-        <v>230.4152078814119</v>
+        <v>230.415207881412</v>
       </c>
       <c r="X28" t="n">
-        <v>169.6018649338581</v>
+        <v>169.6018649338582</v>
       </c>
       <c r="Y28" t="n">
-        <v>162.4768628969157</v>
+        <v>162.4768628969158</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>326.6260512083015</v>
+        <v>326.6260512083016</v>
       </c>
       <c r="C29" t="n">
-        <v>309.1651013158285</v>
+        <v>309.1651013158286</v>
       </c>
       <c r="D29" t="n">
-        <v>298.5752511655039</v>
+        <v>298.575251165504</v>
       </c>
       <c r="E29" t="n">
-        <v>325.8225796170827</v>
+        <v>325.8225796170828</v>
       </c>
       <c r="F29" t="n">
-        <v>350.7682552865323</v>
+        <v>350.7682552865325</v>
       </c>
       <c r="G29" t="n">
-        <v>354.8139351982744</v>
+        <v>354.8139351982745</v>
       </c>
       <c r="H29" t="n">
-        <v>238.4999739321414</v>
+        <v>238.4999739321415</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>53.07997133299673</v>
+        <v>53.07997133299686</v>
       </c>
       <c r="T29" t="n">
-        <v>147.810179684441</v>
+        <v>147.8101796844412</v>
       </c>
       <c r="U29" t="n">
-        <v>194.8873815037229</v>
+        <v>194.887381503723</v>
       </c>
       <c r="V29" t="n">
-        <v>271.6444680149558</v>
+        <v>271.6444680149559</v>
       </c>
       <c r="W29" t="n">
-        <v>293.1331782622339</v>
+        <v>293.133178262234</v>
       </c>
       <c r="X29" t="n">
-        <v>313.6233102232899</v>
+        <v>313.62331022329</v>
       </c>
       <c r="Y29" t="n">
-        <v>330.1301482008745</v>
+        <v>330.1301482008746</v>
       </c>
     </row>
     <row r="30">
@@ -2880,16 +2880,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.069212393384</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247665</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>123.7241897267582</v>
+        <v>123.7241897267583</v>
       </c>
       <c r="C31" t="n">
-        <v>111.1390306434487</v>
+        <v>111.1390306434488</v>
       </c>
       <c r="D31" t="n">
-        <v>92.50768256303326</v>
+        <v>92.50768256303337</v>
       </c>
       <c r="E31" t="n">
-        <v>90.32617219139007</v>
+        <v>90.32617219139019</v>
       </c>
       <c r="F31" t="n">
-        <v>89.31325756775215</v>
+        <v>89.31325756775226</v>
       </c>
       <c r="G31" t="n">
-        <v>109.9180178038491</v>
+        <v>109.9180178038492</v>
       </c>
       <c r="H31" t="n">
-        <v>88.64722445914168</v>
+        <v>88.6472244591418</v>
       </c>
       <c r="I31" t="n">
-        <v>40.244629954659</v>
+        <v>40.24462995465912</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>32.82436221486823</v>
+        <v>32.82436221486836</v>
       </c>
       <c r="S31" t="n">
-        <v>133.6612348762628</v>
+        <v>133.6612348762629</v>
       </c>
       <c r="T31" t="n">
-        <v>163.4411588209901</v>
+        <v>163.4411588209902</v>
       </c>
       <c r="U31" t="n">
-        <v>230.1040477504338</v>
+        <v>230.1040477504339</v>
       </c>
       <c r="V31" t="n">
-        <v>196.0298528686489</v>
+        <v>196.029852868649</v>
       </c>
       <c r="W31" t="n">
-        <v>230.4152078814119</v>
+        <v>230.415207881412</v>
       </c>
       <c r="X31" t="n">
-        <v>169.6018649338581</v>
+        <v>169.6018649338582</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.4768628969157</v>
+        <v>162.4768628969158</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>326.6260512083015</v>
+        <v>326.6260512083016</v>
       </c>
       <c r="C32" t="n">
-        <v>309.1651013158285</v>
+        <v>309.1651013158286</v>
       </c>
       <c r="D32" t="n">
-        <v>298.5752511655039</v>
+        <v>298.575251165504</v>
       </c>
       <c r="E32" t="n">
-        <v>325.8225796170827</v>
+        <v>325.8225796170829</v>
       </c>
       <c r="F32" t="n">
-        <v>350.7682552865323</v>
+        <v>350.7682552865325</v>
       </c>
       <c r="G32" t="n">
-        <v>354.8139351982744</v>
+        <v>354.8139351982745</v>
       </c>
       <c r="H32" t="n">
-        <v>238.4999739321414</v>
+        <v>238.4999739321415</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>53.07997133299671</v>
+        <v>53.07997133299691</v>
       </c>
       <c r="T32" t="n">
-        <v>147.810179684441</v>
+        <v>147.8101796844412</v>
       </c>
       <c r="U32" t="n">
-        <v>194.8873815037228</v>
+        <v>194.887381503723</v>
       </c>
       <c r="V32" t="n">
-        <v>271.6444680149558</v>
+        <v>271.644468014956</v>
       </c>
       <c r="W32" t="n">
-        <v>293.1331782622339</v>
+        <v>293.1331782622341</v>
       </c>
       <c r="X32" t="n">
-        <v>313.6233102232899</v>
+        <v>313.6233102232901</v>
       </c>
       <c r="Y32" t="n">
-        <v>330.1301482008745</v>
+        <v>330.1301482008747</v>
       </c>
     </row>
     <row r="33">
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.9994691657082</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>123.7241897267582</v>
+        <v>123.7241897267584</v>
       </c>
       <c r="C34" t="n">
-        <v>111.1390306434487</v>
+        <v>111.1390306434489</v>
       </c>
       <c r="D34" t="n">
-        <v>92.50768256303324</v>
+        <v>92.50768256303341</v>
       </c>
       <c r="E34" t="n">
-        <v>90.32617219139006</v>
+        <v>90.32617219139023</v>
       </c>
       <c r="F34" t="n">
-        <v>89.31325756775213</v>
+        <v>89.3132575677523</v>
       </c>
       <c r="G34" t="n">
-        <v>109.9180178038491</v>
+        <v>109.9180178038493</v>
       </c>
       <c r="H34" t="n">
-        <v>88.64722445914167</v>
+        <v>88.64722445914184</v>
       </c>
       <c r="I34" t="n">
-        <v>40.24462995465898</v>
+        <v>40.24462995465917</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.82436221486822</v>
+        <v>32.8243622148684</v>
       </c>
       <c r="S34" t="n">
-        <v>133.6612348762628</v>
+        <v>133.661234876263</v>
       </c>
       <c r="T34" t="n">
-        <v>163.4411588209901</v>
+        <v>163.4411588209903</v>
       </c>
       <c r="U34" t="n">
-        <v>230.1040477504338</v>
+        <v>230.1040477504339</v>
       </c>
       <c r="V34" t="n">
-        <v>196.0298528686489</v>
+        <v>196.0298528686491</v>
       </c>
       <c r="W34" t="n">
-        <v>230.4152078814119</v>
+        <v>230.4152078814121</v>
       </c>
       <c r="X34" t="n">
-        <v>169.6018649338581</v>
+        <v>169.6018649338582</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.4768628969157</v>
+        <v>162.4768628969159</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189221</v>
       </c>
       <c r="U36" t="n">
         <v>225.7871683969286</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657069</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
@@ -3806,7 +3806,7 @@
         <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3992,10 +3992,10 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-1.631974555493798e-12</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480643</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1139.428078063268</v>
+        <v>758.4454748874056</v>
       </c>
       <c r="C11" t="n">
-        <v>1139.428078063268</v>
+        <v>758.4454748874056</v>
       </c>
       <c r="D11" t="n">
-        <v>823.1592782170485</v>
+        <v>758.4454748874056</v>
       </c>
       <c r="E11" t="n">
-        <v>823.1592782170485</v>
+        <v>414.6541210496927</v>
       </c>
       <c r="F11" t="n">
-        <v>454.1702721879722</v>
+        <v>45.66511502061644</v>
       </c>
       <c r="G11" t="n">
-        <v>80.14841056771084</v>
+        <v>45.66511502061644</v>
       </c>
       <c r="H11" t="n">
-        <v>80.14841056771084</v>
+        <v>43.66578558797898</v>
       </c>
       <c r="I11" t="n">
-        <v>43.66578558797897</v>
+        <v>43.66578558797898</v>
       </c>
       <c r="J11" t="n">
-        <v>153.8263252817114</v>
+        <v>153.826325281711</v>
       </c>
       <c r="K11" t="n">
         <v>369.6669363545816</v>
       </c>
       <c r="L11" t="n">
-        <v>674.3380621808153</v>
+        <v>674.3380621808155</v>
       </c>
       <c r="M11" t="n">
         <v>1045.012830947799</v>
@@ -5057,7 +5057,7 @@
         <v>1773.002065483132</v>
       </c>
       <c r="P11" t="n">
-        <v>2034.403842291853</v>
+        <v>2034.403842291854</v>
       </c>
       <c r="Q11" t="n">
         <v>2182.532943734424</v>
@@ -5066,25 +5066,25 @@
         <v>2183.289279398949</v>
       </c>
       <c r="S11" t="n">
-        <v>2093.431465416407</v>
+        <v>2093.431465416408</v>
       </c>
       <c r="T11" t="n">
-        <v>1925.308143547769</v>
+        <v>2093.431465416408</v>
       </c>
       <c r="U11" t="n">
-        <v>1832.173452582139</v>
+        <v>2093.431465416408</v>
       </c>
       <c r="V11" t="n">
-        <v>1832.173452582139</v>
+        <v>2093.431465416408</v>
       </c>
       <c r="W11" t="n">
-        <v>1832.173452582139</v>
+        <v>1782.659708906825</v>
       </c>
       <c r="X11" t="n">
-        <v>1832.173452582139</v>
+        <v>1451.190849406276</v>
       </c>
       <c r="Y11" t="n">
-        <v>1484.031019366858</v>
+        <v>1103.048416190996</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>653.1051512191794</v>
+        <v>653.1051512191789</v>
       </c>
       <c r="C12" t="n">
-        <v>520.6490206985836</v>
+        <v>520.6490206985832</v>
       </c>
       <c r="D12" t="n">
-        <v>413.7115097978635</v>
+        <v>413.7115097978632</v>
       </c>
       <c r="E12" t="n">
-        <v>296.4709535529392</v>
+        <v>296.470953552939</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9332943403555</v>
+        <v>191.9332943403553</v>
       </c>
       <c r="G12" t="n">
-        <v>97.06077232543288</v>
+        <v>97.06077232543279</v>
       </c>
       <c r="H12" t="n">
-        <v>43.66578558797897</v>
+        <v>43.66578558797898</v>
       </c>
       <c r="I12" t="n">
-        <v>43.66578558797897</v>
+        <v>44.3218490841306</v>
       </c>
       <c r="J12" t="n">
-        <v>131.6199618725216</v>
+        <v>132.2760253686734</v>
       </c>
       <c r="K12" t="n">
-        <v>330.9126641727166</v>
+        <v>331.5687276688686</v>
       </c>
       <c r="L12" t="n">
-        <v>631.0237384311074</v>
+        <v>631.6798019272596</v>
       </c>
       <c r="M12" t="n">
-        <v>952.5629421099924</v>
+        <v>953.2190056061447</v>
       </c>
       <c r="N12" t="n">
-        <v>1297.677040152398</v>
+        <v>1297.677040152396</v>
       </c>
       <c r="O12" t="n">
-        <v>1590.569051224139</v>
+        <v>1590.569051224138</v>
       </c>
       <c r="P12" t="n">
-        <v>1847.468806156954</v>
+        <v>1847.468806156952</v>
       </c>
       <c r="Q12" t="n">
-        <v>1941.765146815497</v>
+        <v>1941.765146815496</v>
       </c>
       <c r="R12" t="n">
-        <v>1951.97411693373</v>
+        <v>1951.974116933728</v>
       </c>
       <c r="S12" t="n">
-        <v>1855.128445963247</v>
+        <v>1855.128445963246</v>
       </c>
       <c r="T12" t="n">
-        <v>1702.441517038396</v>
+        <v>1702.441517038395</v>
       </c>
       <c r="U12" t="n">
-        <v>1516.337258367023</v>
+        <v>1516.337258367022</v>
       </c>
       <c r="V12" t="n">
-        <v>1323.182048895811</v>
+        <v>1323.18204889581</v>
       </c>
       <c r="W12" t="n">
-        <v>1110.941590928141</v>
+        <v>1110.94159092814</v>
       </c>
       <c r="X12" t="n">
-        <v>945.086989483139</v>
+        <v>945.0869894831382</v>
       </c>
       <c r="Y12" t="n">
-        <v>779.3235894787163</v>
+        <v>779.3235894787156</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>430.6888853339822</v>
+        <v>296.7354898095</v>
       </c>
       <c r="C13" t="n">
-        <v>430.6888853339822</v>
+        <v>169.7962056421246</v>
       </c>
       <c r="D13" t="n">
-        <v>322.5691446821778</v>
+        <v>169.7962056421246</v>
       </c>
       <c r="E13" t="n">
-        <v>216.6529498603159</v>
+        <v>169.7962056421246</v>
       </c>
       <c r="F13" t="n">
-        <v>111.7599011229368</v>
+        <v>169.7962056421246</v>
       </c>
       <c r="G13" t="n">
-        <v>111.7599011229368</v>
+        <v>43.66578558797898</v>
       </c>
       <c r="H13" t="n">
-        <v>111.7599011229368</v>
+        <v>43.66578558797898</v>
       </c>
       <c r="I13" t="n">
-        <v>43.66578558797897</v>
+        <v>43.66578558797898</v>
       </c>
       <c r="J13" t="n">
         <v>100.5359044465449</v>
       </c>
       <c r="K13" t="n">
-        <v>297.3485458605396</v>
+        <v>297.34854586054</v>
       </c>
       <c r="L13" t="n">
-        <v>593.2164476110854</v>
+        <v>593.2164476110859</v>
       </c>
       <c r="M13" t="n">
-        <v>913.3192773353007</v>
+        <v>913.3192773353013</v>
       </c>
       <c r="N13" t="n">
-        <v>1232.224114051914</v>
+        <v>1232.224114051915</v>
       </c>
       <c r="O13" t="n">
-        <v>1513.910218138236</v>
+        <v>1513.910218138237</v>
       </c>
       <c r="P13" t="n">
-        <v>1737.361337611875</v>
+        <v>1737.361337611876</v>
       </c>
       <c r="Q13" t="n">
-        <v>1821.295536711039</v>
+        <v>1821.295536711041</v>
       </c>
       <c r="R13" t="n">
-        <v>1754.375715422259</v>
+        <v>1821.295536711041</v>
       </c>
       <c r="S13" t="n">
-        <v>1597.289163127144</v>
+        <v>1664.208984415925</v>
       </c>
       <c r="T13" t="n">
-        <v>1463.570085950754</v>
+        <v>1482.625571118564</v>
       </c>
       <c r="U13" t="n">
-        <v>1216.440964262962</v>
+        <v>1235.496449430772</v>
       </c>
       <c r="V13" t="n">
-        <v>1003.753374817606</v>
+        <v>1048.595659676123</v>
       </c>
       <c r="W13" t="n">
-        <v>756.3331035411769</v>
+        <v>801.1753883996932</v>
       </c>
       <c r="X13" t="n">
-        <v>570.3404514036907</v>
+        <v>615.1827362622072</v>
       </c>
       <c r="Y13" t="n">
-        <v>570.3404514036907</v>
+        <v>436.3870558792084</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1469.279223929508</v>
+        <v>1421.726494819123</v>
       </c>
       <c r="C14" t="n">
-        <v>1152.368027693445</v>
+        <v>1407.954729324146</v>
       </c>
       <c r="D14" t="n">
-        <v>1152.368027693445</v>
+        <v>1407.954729324146</v>
       </c>
       <c r="E14" t="n">
-        <v>808.576673855732</v>
+        <v>1064.163375486433</v>
       </c>
       <c r="F14" t="n">
-        <v>439.5876678266557</v>
+        <v>695.174369457357</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>322.0988180628848</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
         <v>3257.312051896797</v>
       </c>
       <c r="T14" t="n">
-        <v>3093.33120304155</v>
+        <v>3257.312051896797</v>
       </c>
       <c r="U14" t="n">
-        <v>3093.33120304155</v>
+        <v>3045.778473931164</v>
       </c>
       <c r="V14" t="n">
-        <v>2804.265214458511</v>
+        <v>2756.712485348125</v>
       </c>
       <c r="W14" t="n">
-        <v>2493.493457948928</v>
+        <v>2445.940728838542</v>
       </c>
       <c r="X14" t="n">
-        <v>2162.024598448379</v>
+        <v>2114.471869337994</v>
       </c>
       <c r="Y14" t="n">
-        <v>1813.882165233099</v>
+        <v>1766.329436122713</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,13 +5373,13 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
         <v>2435.471302619336</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>671.929451253339</v>
+        <v>797.6353891180883</v>
       </c>
       <c r="C16" t="n">
-        <v>544.9901670859633</v>
+        <v>670.6961049507127</v>
       </c>
       <c r="D16" t="n">
-        <v>436.8704264341588</v>
+        <v>562.5763642989082</v>
       </c>
       <c r="E16" t="n">
-        <v>330.9542316122969</v>
+        <v>456.6601694770464</v>
       </c>
       <c r="F16" t="n">
-        <v>226.0611828749178</v>
+        <v>351.7671207396673</v>
       </c>
       <c r="G16" t="n">
-        <v>226.0611828749178</v>
+        <v>226.0611828749176</v>
       </c>
       <c r="H16" t="n">
-        <v>121.8408948533068</v>
+        <v>121.8408948533067</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>152.7959093543159</v>
+        <v>152.7959093543157</v>
       </c>
       <c r="K16" t="n">
-        <v>397.9442527783889</v>
+        <v>397.9442527783886</v>
       </c>
       <c r="L16" t="n">
-        <v>755.6652117020817</v>
+        <v>755.6652117020815</v>
       </c>
       <c r="M16" t="n">
         <v>1140.983417776827</v>
       </c>
       <c r="N16" t="n">
-        <v>1523.552954957889</v>
+        <v>1523.552954957888</v>
       </c>
       <c r="O16" t="n">
         <v>1864.043714353499</v>
@@ -5458,28 +5458,28 @@
         <v>2256.583831890066</v>
       </c>
       <c r="R16" t="n">
-        <v>2208.750273408125</v>
+        <v>2256.583831890066</v>
       </c>
       <c r="S16" t="n">
-        <v>2059.061287995482</v>
+        <v>2106.894846477424</v>
       </c>
       <c r="T16" t="n">
-        <v>1879.29157132554</v>
+        <v>2009.289116543892</v>
       </c>
       <c r="U16" t="n">
-        <v>1632.185603211715</v>
+        <v>1762.183148430066</v>
       </c>
       <c r="V16" t="n">
-        <v>1419.49801376636</v>
+        <v>1549.495558984711</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.07774248993</v>
+        <v>1302.075287708282</v>
       </c>
       <c r="X16" t="n">
-        <v>986.0850903524442</v>
+        <v>1116.082635570795</v>
       </c>
       <c r="Y16" t="n">
-        <v>811.5810173230475</v>
+        <v>937.2869551877966</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C17" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D17" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307333</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G17" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T17" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X17" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="18">
@@ -5571,25 +5571,25 @@
         <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170921</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C19" t="n">
         <v>331.9946474630286</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E19" t="n">
         <v>231.3077836159867</v>
@@ -5665,37 +5665,37 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>67.83109325226764</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>176.361719815531</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K19" t="n">
-        <v>371.3804471090252</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L19" t="n">
-        <v>623.7981640572063</v>
+        <v>622.4791872371222</v>
       </c>
       <c r="M19" t="n">
-        <v>887.938518382228</v>
+        <v>886.6195415621439</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.247355412075</v>
+        <v>1057.928378591991</v>
       </c>
       <c r="O19" t="n">
-        <v>1197.165704630265</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P19" t="n">
-        <v>1371.681856552142</v>
+        <v>1380.346898434619</v>
       </c>
       <c r="Q19" t="n">
-        <v>1481.310496936507</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S19" t="n">
         <v>1396.961089219653</v>
@@ -5704,19 +5704,19 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U19" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304662</v>
+        <v>927.421422430466</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673488</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C20" t="n">
         <v>1440.850850103805</v>
@@ -5738,31 +5738,31 @@
         <v>894.1397680464968</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307327</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G20" t="n">
         <v>265.4242822495728</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5774,13 +5774,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
         <v>3313.986587710109</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U20" t="n">
         <v>3051.821232515854</v>
@@ -5789,10 +5789,10 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y20" t="n">
         <v>1999.070337960652</v>
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,31 +5847,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
         <v>1109.759191501176</v>
@@ -5902,37 +5902,37 @@
         <v>114.0578686404822</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>67.83109325226766</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>176.3617198155311</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K22" t="n">
-        <v>371.3804471090255</v>
+        <v>262.1948921089723</v>
       </c>
       <c r="L22" t="n">
-        <v>623.7981640572067</v>
+        <v>514.6126090571535</v>
       </c>
       <c r="M22" t="n">
-        <v>887.9385183822285</v>
+        <v>682.0450903563512</v>
       </c>
       <c r="N22" t="n">
-        <v>1059.247355412076</v>
+        <v>950.0618004120226</v>
       </c>
       <c r="O22" t="n">
-        <v>1197.165704630266</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P22" t="n">
-        <v>1392.824580408848</v>
+        <v>1380.346898434619</v>
       </c>
       <c r="Q22" t="n">
-        <v>1481.310496936506</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S22" t="n">
         <v>1396.961089219653</v>
@@ -5941,16 +5941,16 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V22" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X22" t="n">
-        <v>607.357570643175</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y22" t="n">
         <v>485.2364260734884</v>
@@ -5972,10 +5972,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G23" t="n">
         <v>265.4242822495727</v>
@@ -5990,22 +5990,22 @@
         <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052367</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218339</v>
@@ -6069,10 +6069,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6084,10 +6084,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6099,7 +6099,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6108,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C25" t="n">
         <v>331.9946474630286</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E25" t="n">
         <v>231.3077836159867</v>
@@ -6142,34 +6142,34 @@
         <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226764</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>79.65384678970709</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K25" t="n">
-        <v>274.6725740832014</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L25" t="n">
-        <v>430.3824180055587</v>
+        <v>429.0634411854743</v>
       </c>
       <c r="M25" t="n">
-        <v>673.380048473874</v>
+        <v>682.0450903563512</v>
       </c>
       <c r="N25" t="n">
-        <v>941.3967585295454</v>
+        <v>950.0618004120226</v>
       </c>
       <c r="O25" t="n">
-        <v>1176.022980773559</v>
+        <v>1184.688022656036</v>
       </c>
       <c r="P25" t="n">
-        <v>1371.681856552142</v>
+        <v>1380.346898434619</v>
       </c>
       <c r="Q25" t="n">
-        <v>1481.310496936506</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S25" t="n">
         <v>1396.961089219653</v>
@@ -6178,19 +6178,19 @@
         <v>1273.865908363023</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V25" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304662</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673491</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431751</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="26">
@@ -6212,58 +6212,58 @@
         <v>1032.129578259672</v>
       </c>
       <c r="F26" t="n">
-        <v>677.8182092833767</v>
+        <v>677.8182092833763</v>
       </c>
       <c r="G26" t="n">
-        <v>319.4202949416843</v>
+        <v>319.4202949416845</v>
       </c>
       <c r="H26" t="n">
-        <v>78.51123036376376</v>
+        <v>78.5112303637638</v>
       </c>
       <c r="I26" t="n">
-        <v>92.89678243919437</v>
+        <v>92.89678243919428</v>
       </c>
       <c r="J26" t="n">
-        <v>337.3226259488471</v>
+        <v>345.9139878909589</v>
       </c>
       <c r="K26" t="n">
-        <v>726.6887121893209</v>
+        <v>735.2800741314325</v>
       </c>
       <c r="L26" t="n">
-        <v>1233.269637988357</v>
+        <v>1241.860999930468</v>
       </c>
       <c r="M26" t="n">
-        <v>1822.348255210909</v>
+        <v>1830.93961715302</v>
       </c>
       <c r="N26" t="n">
-        <v>2424.673784820318</v>
+        <v>2433.265146762429</v>
       </c>
       <c r="O26" t="n">
-        <v>2983.192968250283</v>
+        <v>2991.784330192393</v>
       </c>
       <c r="P26" t="n">
-        <v>3433.514047158088</v>
+        <v>3442.105409100198</v>
       </c>
       <c r="Q26" t="n">
-        <v>3810.997739080758</v>
+        <v>3745.938483406508</v>
       </c>
       <c r="R26" t="n">
-        <v>3925.561518188188</v>
+        <v>3925.56151818819</v>
       </c>
       <c r="S26" t="n">
-        <v>3871.945385528596</v>
+        <v>3871.945385528597</v>
       </c>
       <c r="T26" t="n">
-        <v>3722.642173726129</v>
+        <v>3722.642173726131</v>
       </c>
       <c r="U26" t="n">
-        <v>3525.786232813278</v>
+        <v>3525.78623281328</v>
       </c>
       <c r="V26" t="n">
-        <v>3251.39788128302</v>
+        <v>3251.397881283021</v>
       </c>
       <c r="W26" t="n">
-        <v>2955.303761826218</v>
+        <v>2955.303761826219</v>
       </c>
       <c r="X26" t="n">
         <v>2638.512539378451</v>
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>953.542968412689</v>
+        <v>953.5429684126882</v>
       </c>
       <c r="C27" t="n">
-        <v>779.089939131562</v>
+        <v>779.0899391315612</v>
       </c>
       <c r="D27" t="n">
-        <v>630.1555294703107</v>
+        <v>630.1555294703099</v>
       </c>
       <c r="E27" t="n">
-        <v>470.9180744648552</v>
+        <v>470.9180744648544</v>
       </c>
       <c r="F27" t="n">
-        <v>324.3835164917402</v>
+        <v>324.3835164917394</v>
       </c>
       <c r="G27" t="n">
-        <v>188.0204163243583</v>
+        <v>188.0204163243575</v>
       </c>
       <c r="H27" t="n">
-        <v>97.5185219622258</v>
+        <v>97.51852196222505</v>
       </c>
       <c r="I27" t="n">
-        <v>78.51123036376376</v>
+        <v>78.5112303637638</v>
       </c>
       <c r="J27" t="n">
         <v>172.1884998543811</v>
       </c>
       <c r="K27" t="n">
-        <v>410.4526988347283</v>
+        <v>410.4526988347282</v>
       </c>
       <c r="L27" t="n">
-        <v>777.1508591473937</v>
+        <v>777.1508591473935</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.42718436971</v>
+        <v>1224.427184369709</v>
       </c>
       <c r="N27" t="n">
         <v>1697.950227924164</v>
@@ -6321,34 +6321,34 @@
         <v>2108.911507342219</v>
       </c>
       <c r="P27" t="n">
-        <v>2419.411098818322</v>
+        <v>2419.411098818321</v>
       </c>
       <c r="Q27" t="n">
-        <v>2577.052656464922</v>
+        <v>2577.052656464921</v>
       </c>
       <c r="R27" t="n">
-        <v>2576.908303057437</v>
+        <v>2576.908303057436</v>
       </c>
       <c r="S27" t="n">
-        <v>2447.470416550917</v>
+        <v>2447.470416550916</v>
       </c>
       <c r="T27" t="n">
-        <v>2254.827416228773</v>
+        <v>2254.827416228772</v>
       </c>
       <c r="U27" t="n">
-        <v>2026.759569363188</v>
+        <v>2026.759569363187</v>
       </c>
       <c r="V27" t="n">
         <v>1791.607461131445</v>
       </c>
       <c r="W27" t="n">
-        <v>1537.370104403244</v>
+        <v>1537.370104403243</v>
       </c>
       <c r="X27" t="n">
-        <v>1329.518604197711</v>
+        <v>1329.51860419771</v>
       </c>
       <c r="Y27" t="n">
-        <v>1121.758305432757</v>
+        <v>1121.758305432756</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>706.8910436802023</v>
+        <v>706.8910436802031</v>
       </c>
       <c r="C28" t="n">
-        <v>594.6293965656076</v>
+        <v>594.6293965656083</v>
       </c>
       <c r="D28" t="n">
-        <v>501.1872929665841</v>
+        <v>501.1872929665847</v>
       </c>
       <c r="E28" t="n">
-        <v>409.9487351975032</v>
+        <v>409.9487351975037</v>
       </c>
       <c r="F28" t="n">
-        <v>319.733323512905</v>
+        <v>319.7333235129054</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7050227009362</v>
+        <v>208.7050227009365</v>
       </c>
       <c r="H28" t="n">
-        <v>119.1623717321062</v>
+        <v>119.1623717321064</v>
       </c>
       <c r="I28" t="n">
-        <v>78.51123036376376</v>
+        <v>78.5112303637638</v>
       </c>
       <c r="J28" t="n">
-        <v>145.8806964518305</v>
+        <v>179.1805753613265</v>
       </c>
       <c r="K28" t="n">
-        <v>299.7382632701282</v>
+        <v>333.0381421796241</v>
       </c>
       <c r="L28" t="n">
-        <v>671.8447742692517</v>
+        <v>705.1446531787474</v>
       </c>
       <c r="M28" t="n">
-        <v>1071.548532419428</v>
+        <v>1104.848411328923</v>
       </c>
       <c r="N28" t="n">
-        <v>1468.50362167592</v>
+        <v>1452.24029383101</v>
       </c>
       <c r="O28" t="n">
-        <v>1807.116605302048</v>
+        <v>1807.116605302051</v>
       </c>
       <c r="P28" t="n">
-        <v>2095.270818286335</v>
+        <v>2095.270818286337</v>
       </c>
       <c r="Q28" t="n">
-        <v>2163.738298195503</v>
+        <v>2163.738298195505</v>
       </c>
       <c r="R28" t="n">
-        <v>2130.582376766343</v>
+        <v>2130.582376766345</v>
       </c>
       <c r="S28" t="n">
-        <v>1995.571028406482</v>
+        <v>1995.571028406483</v>
       </c>
       <c r="T28" t="n">
-        <v>1830.47894878932</v>
+        <v>1830.478948789322</v>
       </c>
       <c r="U28" t="n">
-        <v>1598.050617728276</v>
+        <v>1598.050617728278</v>
       </c>
       <c r="V28" t="n">
-        <v>1400.040665335701</v>
+        <v>1400.040665335703</v>
       </c>
       <c r="W28" t="n">
-        <v>1167.298031112053</v>
+        <v>1167.298031112054</v>
       </c>
       <c r="X28" t="n">
-        <v>995.9830160273477</v>
+        <v>995.9830160273488</v>
       </c>
       <c r="Y28" t="n">
-        <v>831.8649726971298</v>
+        <v>831.8649726971307</v>
       </c>
     </row>
     <row r="29">
@@ -6437,73 +6437,73 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1975.122438965141</v>
+        <v>1975.122438965142</v>
       </c>
       <c r="C29" t="n">
-        <v>1662.834457838041</v>
+        <v>1662.834457838042</v>
       </c>
       <c r="D29" t="n">
-        <v>1361.243295044603</v>
+        <v>1361.243295044604</v>
       </c>
       <c r="E29" t="n">
-        <v>1032.129578259671</v>
+        <v>1032.129578259672</v>
       </c>
       <c r="F29" t="n">
-        <v>677.8182092833758</v>
+        <v>677.8182092833763</v>
       </c>
       <c r="G29" t="n">
-        <v>319.4202949416843</v>
+        <v>319.4202949416845</v>
       </c>
       <c r="H29" t="n">
-        <v>78.51123036376376</v>
+        <v>78.51123036376379</v>
       </c>
       <c r="I29" t="n">
-        <v>92.89678243919437</v>
+        <v>92.89678243919427</v>
       </c>
       <c r="J29" t="n">
-        <v>337.3226259488471</v>
+        <v>345.9139878909584</v>
       </c>
       <c r="K29" t="n">
-        <v>726.6887121893209</v>
+        <v>735.280074131432</v>
       </c>
       <c r="L29" t="n">
-        <v>1233.269637988357</v>
+        <v>1241.860999930468</v>
       </c>
       <c r="M29" t="n">
-        <v>1822.348255210909</v>
+        <v>1830.939617153019</v>
       </c>
       <c r="N29" t="n">
-        <v>2424.673784820318</v>
+        <v>2433.265146762429</v>
       </c>
       <c r="O29" t="n">
-        <v>3056.843585866643</v>
+        <v>2991.784330192393</v>
       </c>
       <c r="P29" t="n">
-        <v>3507.164664774448</v>
+        <v>3442.105409100198</v>
       </c>
       <c r="Q29" t="n">
-        <v>3810.997739080758</v>
+        <v>3745.938483406507</v>
       </c>
       <c r="R29" t="n">
-        <v>3925.561518188188</v>
+        <v>3925.561518188189</v>
       </c>
       <c r="S29" t="n">
-        <v>3871.945385528595</v>
+        <v>3871.945385528597</v>
       </c>
       <c r="T29" t="n">
-        <v>3722.642173726129</v>
+        <v>3722.642173726131</v>
       </c>
       <c r="U29" t="n">
-        <v>3525.786232813278</v>
+        <v>3525.78623281328</v>
       </c>
       <c r="V29" t="n">
-        <v>3251.397881283019</v>
+        <v>3251.397881283021</v>
       </c>
       <c r="W29" t="n">
-        <v>2955.303761826217</v>
+        <v>2955.303761826219</v>
       </c>
       <c r="X29" t="n">
-        <v>2638.51253937845</v>
+        <v>2638.512539378451</v>
       </c>
       <c r="Y29" t="n">
         <v>2305.047743215951</v>
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>953.5429684126891</v>
+        <v>953.5429684126882</v>
       </c>
       <c r="C30" t="n">
-        <v>779.0899391315621</v>
+        <v>779.0899391315612</v>
       </c>
       <c r="D30" t="n">
-        <v>630.1555294703109</v>
+        <v>630.1555294703099</v>
       </c>
       <c r="E30" t="n">
-        <v>470.9180744648554</v>
+        <v>470.9180744648544</v>
       </c>
       <c r="F30" t="n">
-        <v>324.3835164917402</v>
+        <v>324.3835164917394</v>
       </c>
       <c r="G30" t="n">
-        <v>188.0204163243583</v>
+        <v>188.0204163243575</v>
       </c>
       <c r="H30" t="n">
-        <v>97.5185219622258</v>
+        <v>97.51852196222505</v>
       </c>
       <c r="I30" t="n">
-        <v>78.51123036376376</v>
+        <v>78.51123036376379</v>
       </c>
       <c r="J30" t="n">
         <v>172.1884998543811</v>
       </c>
       <c r="K30" t="n">
-        <v>410.4526988347283</v>
+        <v>410.4526988347282</v>
       </c>
       <c r="L30" t="n">
-        <v>777.1508591473937</v>
+        <v>777.1508591473935</v>
       </c>
       <c r="M30" t="n">
-        <v>1224.42718436971</v>
+        <v>1224.427184369709</v>
       </c>
       <c r="N30" t="n">
         <v>1697.950227924164</v>
@@ -6558,34 +6558,34 @@
         <v>2108.911507342219</v>
       </c>
       <c r="P30" t="n">
-        <v>2419.411098818322</v>
+        <v>2419.411098818321</v>
       </c>
       <c r="Q30" t="n">
-        <v>2577.052656464922</v>
+        <v>2577.052656464921</v>
       </c>
       <c r="R30" t="n">
-        <v>2576.908303057437</v>
+        <v>2576.908303057436</v>
       </c>
       <c r="S30" t="n">
-        <v>2447.470416550917</v>
+        <v>2447.470416550916</v>
       </c>
       <c r="T30" t="n">
-        <v>2254.827416228773</v>
+        <v>2254.827416228772</v>
       </c>
       <c r="U30" t="n">
-        <v>2026.759569363188</v>
+        <v>2026.759569363187</v>
       </c>
       <c r="V30" t="n">
         <v>1791.607461131445</v>
       </c>
       <c r="W30" t="n">
-        <v>1537.370104403244</v>
+        <v>1537.370104403243</v>
       </c>
       <c r="X30" t="n">
-        <v>1329.518604197711</v>
+        <v>1329.51860419771</v>
       </c>
       <c r="Y30" t="n">
-        <v>1121.758305432757</v>
+        <v>1121.758305432756</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>706.8910436802023</v>
+        <v>706.8910436802031</v>
       </c>
       <c r="C31" t="n">
-        <v>594.6293965656076</v>
+        <v>594.6293965656083</v>
       </c>
       <c r="D31" t="n">
-        <v>501.1872929665841</v>
+        <v>501.1872929665847</v>
       </c>
       <c r="E31" t="n">
-        <v>409.9487351975032</v>
+        <v>409.9487351975037</v>
       </c>
       <c r="F31" t="n">
-        <v>319.733323512905</v>
+        <v>319.7333235129054</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7050227009362</v>
+        <v>208.7050227009364</v>
       </c>
       <c r="H31" t="n">
-        <v>119.1623717321062</v>
+        <v>119.1623717321063</v>
       </c>
       <c r="I31" t="n">
-        <v>78.51123036376376</v>
+        <v>78.51123036376379</v>
       </c>
       <c r="J31" t="n">
-        <v>179.1805753613266</v>
+        <v>145.8806964518304</v>
       </c>
       <c r="K31" t="n">
-        <v>438.7144708608303</v>
+        <v>405.4145919513339</v>
       </c>
       <c r="L31" t="n">
-        <v>649.9710273338148</v>
+        <v>777.5211029504571</v>
       </c>
       <c r="M31" t="n">
-        <v>1049.674785483991</v>
+        <v>1000.500296800282</v>
       </c>
       <c r="N31" t="n">
-        <v>1446.629874740483</v>
+        <v>1387.550765037036</v>
       </c>
       <c r="O31" t="n">
-        <v>1742.427076508074</v>
+        <v>1742.427076508077</v>
       </c>
       <c r="P31" t="n">
-        <v>2030.581289492361</v>
+        <v>2030.581289492363</v>
       </c>
       <c r="Q31" t="n">
-        <v>2163.738298195503</v>
+        <v>2163.738298195505</v>
       </c>
       <c r="R31" t="n">
-        <v>2130.582376766343</v>
+        <v>2130.582376766345</v>
       </c>
       <c r="S31" t="n">
-        <v>1995.571028406482</v>
+        <v>1995.571028406483</v>
       </c>
       <c r="T31" t="n">
-        <v>1830.47894878932</v>
+        <v>1830.478948789322</v>
       </c>
       <c r="U31" t="n">
-        <v>1598.050617728276</v>
+        <v>1598.050617728278</v>
       </c>
       <c r="V31" t="n">
-        <v>1400.040665335701</v>
+        <v>1400.040665335703</v>
       </c>
       <c r="W31" t="n">
-        <v>1167.298031112053</v>
+        <v>1167.298031112054</v>
       </c>
       <c r="X31" t="n">
-        <v>995.9830160273477</v>
+        <v>995.9830160273488</v>
       </c>
       <c r="Y31" t="n">
-        <v>831.8649726971298</v>
+        <v>831.8649726971307</v>
       </c>
     </row>
     <row r="32">
@@ -6683,61 +6683,61 @@
         <v>1361.243295044604</v>
       </c>
       <c r="E32" t="n">
-        <v>1032.129578259672</v>
+        <v>1032.129578259671</v>
       </c>
       <c r="F32" t="n">
-        <v>677.8182092833765</v>
+        <v>677.8182092833759</v>
       </c>
       <c r="G32" t="n">
-        <v>319.4202949416843</v>
+        <v>319.4202949416846</v>
       </c>
       <c r="H32" t="n">
-        <v>78.51123036376376</v>
+        <v>78.51123036376379</v>
       </c>
       <c r="I32" t="n">
-        <v>92.89678243919437</v>
+        <v>92.89678243919421</v>
       </c>
       <c r="J32" t="n">
-        <v>337.3226259488471</v>
+        <v>345.913987890959</v>
       </c>
       <c r="K32" t="n">
-        <v>726.6887121893209</v>
+        <v>735.2800741314326</v>
       </c>
       <c r="L32" t="n">
-        <v>1233.269637988357</v>
+        <v>1241.860999930468</v>
       </c>
       <c r="M32" t="n">
-        <v>1822.348255210909</v>
+        <v>1830.93961715302</v>
       </c>
       <c r="N32" t="n">
-        <v>2424.673784820318</v>
+        <v>2433.265146762429</v>
       </c>
       <c r="O32" t="n">
-        <v>2983.192968250283</v>
+        <v>2991.784330192393</v>
       </c>
       <c r="P32" t="n">
-        <v>3507.164664774448</v>
+        <v>3442.105409100198</v>
       </c>
       <c r="Q32" t="n">
-        <v>3810.997739080758</v>
+        <v>3745.938483406507</v>
       </c>
       <c r="R32" t="n">
-        <v>3925.561518188188</v>
+        <v>3925.561518188189</v>
       </c>
       <c r="S32" t="n">
         <v>3871.945385528596</v>
       </c>
       <c r="T32" t="n">
-        <v>3722.64217372613</v>
+        <v>3722.642173726131</v>
       </c>
       <c r="U32" t="n">
-        <v>3525.786232813278</v>
+        <v>3525.78623281328</v>
       </c>
       <c r="V32" t="n">
-        <v>3251.39788128302</v>
+        <v>3251.397881283021</v>
       </c>
       <c r="W32" t="n">
-        <v>2955.303761826218</v>
+        <v>2955.303761826219</v>
       </c>
       <c r="X32" t="n">
         <v>2638.512539378451</v>
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>953.5429684126891</v>
+        <v>953.542968412689</v>
       </c>
       <c r="C33" t="n">
-        <v>779.0899391315621</v>
+        <v>779.089939131562</v>
       </c>
       <c r="D33" t="n">
-        <v>630.1555294703109</v>
+        <v>630.1555294703107</v>
       </c>
       <c r="E33" t="n">
-        <v>470.9180744648554</v>
+        <v>470.9180744648553</v>
       </c>
       <c r="F33" t="n">
-        <v>324.3835164917404</v>
+        <v>324.3835164917402</v>
       </c>
       <c r="G33" t="n">
         <v>188.0204163243583</v>
       </c>
       <c r="H33" t="n">
-        <v>97.5185219622258</v>
+        <v>97.51852196222586</v>
       </c>
       <c r="I33" t="n">
-        <v>78.51123036376376</v>
+        <v>78.51123036376379</v>
       </c>
       <c r="J33" t="n">
         <v>172.1884998543811</v>
       </c>
       <c r="K33" t="n">
-        <v>410.4526988347283</v>
+        <v>410.4526988347282</v>
       </c>
       <c r="L33" t="n">
-        <v>777.1508591473937</v>
+        <v>777.1508591473935</v>
       </c>
       <c r="M33" t="n">
-        <v>1224.42718436971</v>
+        <v>1224.427184369709</v>
       </c>
       <c r="N33" t="n">
         <v>1697.950227924164</v>
@@ -6795,7 +6795,7 @@
         <v>2108.911507342219</v>
       </c>
       <c r="P33" t="n">
-        <v>2419.411098818322</v>
+        <v>2419.411098818321</v>
       </c>
       <c r="Q33" t="n">
         <v>2577.052656464922</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>706.891043680202</v>
+        <v>706.8910436802033</v>
       </c>
       <c r="C34" t="n">
-        <v>594.6293965656073</v>
+        <v>594.6293965656084</v>
       </c>
       <c r="D34" t="n">
-        <v>501.1872929665839</v>
+        <v>501.1872929665848</v>
       </c>
       <c r="E34" t="n">
-        <v>409.948735197503</v>
+        <v>409.9487351975038</v>
       </c>
       <c r="F34" t="n">
-        <v>319.7333235129049</v>
+        <v>319.7333235129055</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7050227009361</v>
+        <v>208.7050227009365</v>
       </c>
       <c r="H34" t="n">
-        <v>119.1623717321062</v>
+        <v>119.1623717321064</v>
       </c>
       <c r="I34" t="n">
-        <v>78.51123036376376</v>
+        <v>78.51123036376379</v>
       </c>
       <c r="J34" t="n">
-        <v>179.1805753613266</v>
+        <v>145.8806964518304</v>
       </c>
       <c r="K34" t="n">
-        <v>438.7144708608303</v>
+        <v>405.4145919513338</v>
       </c>
       <c r="L34" t="n">
-        <v>810.8209818599538</v>
+        <v>777.5211029504571</v>
       </c>
       <c r="M34" t="n">
-        <v>1210.52474001013</v>
+        <v>1177.224861100633</v>
       </c>
       <c r="N34" t="n">
-        <v>1585.896791511908</v>
+        <v>1574.179950357125</v>
       </c>
       <c r="O34" t="n">
-        <v>1940.773102982948</v>
+        <v>1876.083574188978</v>
       </c>
       <c r="P34" t="n">
-        <v>2095.270818286334</v>
+        <v>2030.581289492364</v>
       </c>
       <c r="Q34" t="n">
-        <v>2163.738298195502</v>
+        <v>2163.738298195506</v>
       </c>
       <c r="R34" t="n">
-        <v>2130.582376766343</v>
+        <v>2130.582376766346</v>
       </c>
       <c r="S34" t="n">
-        <v>1995.571028406481</v>
+        <v>1995.571028406484</v>
       </c>
       <c r="T34" t="n">
-        <v>1830.47894878932</v>
+        <v>1830.478948789322</v>
       </c>
       <c r="U34" t="n">
-        <v>1598.050617728275</v>
+        <v>1598.050617728278</v>
       </c>
       <c r="V34" t="n">
-        <v>1400.040665335701</v>
+        <v>1400.040665335703</v>
       </c>
       <c r="W34" t="n">
-        <v>1167.298031112053</v>
+        <v>1167.298031112054</v>
       </c>
       <c r="X34" t="n">
-        <v>995.9830160273474</v>
+        <v>995.983016027349</v>
       </c>
       <c r="Y34" t="n">
-        <v>831.8649726971295</v>
+        <v>831.864972697131</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6932,25 +6932,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296686</v>
@@ -6965,7 +6965,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
@@ -6974,7 +6974,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7017,10 +7017,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,22 +7032,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7090,28 +7090,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226761</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>176.361719815531</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K37" t="n">
-        <v>371.3804471090252</v>
+        <v>273.3535972631171</v>
       </c>
       <c r="L37" t="n">
-        <v>623.7981640572063</v>
+        <v>505.9475671746773</v>
       </c>
       <c r="M37" t="n">
-        <v>887.938518382228</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N37" t="n">
-        <v>1155.955228437899</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O37" t="n">
-        <v>1293.873577656089</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P37" t="n">
-        <v>1392.824580408848</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
         <v>1481.310496936507</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218286</v>
+        <v>66.51211643218508</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810568</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,31 +7269,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
         <v>1109.759191501176</v>
@@ -7321,34 +7321,34 @@
         <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
         <v>67.83109325226761</v>
       </c>
       <c r="J40" t="n">
-        <v>176.361719815531</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K40" t="n">
         <v>371.3804471090252</v>
       </c>
       <c r="L40" t="n">
-        <v>527.0902910313825</v>
+        <v>623.7981640572062</v>
       </c>
       <c r="M40" t="n">
-        <v>791.2306453564042</v>
+        <v>887.9385183822278</v>
       </c>
       <c r="N40" t="n">
-        <v>962.5394823862517</v>
+        <v>1134.812504581194</v>
       </c>
       <c r="O40" t="n">
-        <v>1197.165704630265</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P40" t="n">
-        <v>1392.824580408848</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q40" t="n">
         <v>1481.310496936507</v>
@@ -7394,10 +7394,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464977</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307335</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7409,10 +7409,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7424,7 +7424,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7439,7 +7439,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D42" t="n">
         <v>618.1564155387305</v>
@@ -7476,7 +7476,7 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G42" t="n">
         <v>176.021302392778</v>
@@ -7488,34 +7488,34 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
@@ -7567,22 +7567,22 @@
         <v>67.83109325226762</v>
       </c>
       <c r="J43" t="n">
-        <v>176.361719815531</v>
+        <v>79.65384678970707</v>
       </c>
       <c r="K43" t="n">
-        <v>371.3804471090253</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L43" t="n">
-        <v>602.6554402005013</v>
+        <v>430.3824180055586</v>
       </c>
       <c r="M43" t="n">
-        <v>866.795794525523</v>
+        <v>694.5227723305803</v>
       </c>
       <c r="N43" t="n">
-        <v>1134.812504581194</v>
+        <v>962.5394823862517</v>
       </c>
       <c r="O43" t="n">
-        <v>1272.730853799384</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P43" t="n">
         <v>1371.681856552143</v>
@@ -7625,16 +7625,16 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
@@ -7643,25 +7643,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218508</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810568</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7679,19 +7679,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,13 +7743,13 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
         <v>2435.471302619336</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7801,28 +7801,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226762</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J46" t="n">
-        <v>79.65384678970707</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K46" t="n">
-        <v>274.6725740832014</v>
+        <v>371.3804471090252</v>
       </c>
       <c r="L46" t="n">
-        <v>505.947567174677</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M46" t="n">
-        <v>770.0879214996987</v>
+        <v>694.5227723305801</v>
       </c>
       <c r="N46" t="n">
-        <v>1038.10463155537</v>
+        <v>941.3967585295464</v>
       </c>
       <c r="O46" t="n">
-        <v>1272.730853799384</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P46" t="n">
-        <v>1468.389729577966</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q46" t="n">
         <v>1481.310496936507</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>8.678143375870718</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>74.3945632488489</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10042,10 +10042,10 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>121.7538716379919</v>
       </c>
       <c r="O28" t="n">
-        <v>146.6140624821322</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>8.678143375870263</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>74.39456324884884</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10267,22 +10267,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>161.8130491477573</v>
       </c>
       <c r="O31" t="n">
-        <v>103.3657979785594</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>8.678143375871031</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>74.3945632488485</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
@@ -10516,16 +10516,16 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>150.0166686073763</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>109.5339010737742</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.46419696171114</v>
+        <v>14.46419696171113</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>323.6959619980817</v>
+        <v>323.6959619980815</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>313.1061118477569</v>
       </c>
       <c r="E11" t="n">
-        <v>340.3534402993359</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>370.2816430040586</v>
       </c>
       <c r="H11" t="n">
-        <v>262.6253202182579</v>
+        <v>260.6459840799462</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>36.11779872993444</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>166.4420886499517</v>
       </c>
       <c r="U11" t="n">
-        <v>117.2898458998843</v>
+        <v>209.4931899558584</v>
       </c>
       <c r="V11" t="n">
-        <v>286.175328697209</v>
+        <v>286.1753286972089</v>
       </c>
       <c r="W11" t="n">
-        <v>307.6640389444871</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>328.1541709055431</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>125.6698913257019</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>107.0385432452863</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>103.8441182500052</v>
       </c>
       <c r="G13" t="n">
-        <v>124.8691158536043</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>106.9143773724579</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>67.41317437960808</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.25062307589229</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>47.38569275976226</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>25.52893169379934</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>177.0077235791689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.953877724379087</v>
+        <v>310.0619141580553</v>
       </c>
       <c r="D14" t="n">
-        <v>313.1061118477571</v>
+        <v>313.1061118477569</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>253.0308346143946</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U14" t="n">
-        <v>209.4182421859761</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4488784861023</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.35522289712134</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>81.34234686904632</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.24869128006609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>163855.2677434077</v>
       </c>
       <c r="C2" t="n">
-        <v>163855.2677434077</v>
+        <v>163855.2677434076</v>
       </c>
       <c r="D2" t="n">
-        <v>163868.6173090182</v>
+        <v>163868.617309018</v>
       </c>
       <c r="E2" t="n">
-        <v>130117.4362657335</v>
+        <v>130117.4362657336</v>
       </c>
       <c r="F2" t="n">
         <v>151085.3013013287</v>
@@ -26332,16 +26332,16 @@
         <v>164208.3539728567</v>
       </c>
       <c r="I2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="J2" t="n">
-        <v>164208.3539728563</v>
+        <v>164208.3539728565</v>
       </c>
       <c r="K2" t="n">
         <v>164208.3539728564</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728564</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="M2" t="n">
         <v>164208.3539728567</v>
@@ -26353,7 +26353,7 @@
         <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728566</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>178636.7950430969</v>
+        <v>178636.7950430979</v>
       </c>
       <c r="E3" t="n">
-        <v>716956.9442962977</v>
+        <v>716956.944296297</v>
       </c>
       <c r="F3" t="n">
-        <v>266031.7208775263</v>
+        <v>266031.7208775258</v>
       </c>
       <c r="G3" t="n">
-        <v>44886.23236414326</v>
+        <v>44886.23236414321</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>39243.70206893017</v>
+        <v>39243.7020689303</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>44886.23236414328</v>
+        <v>44886.23236414317</v>
       </c>
       <c r="M3" t="n">
-        <v>131904.8093616052</v>
+        <v>131904.8093616053</v>
       </c>
       <c r="N3" t="n">
-        <v>69946.04093348076</v>
+        <v>69946.04093348073</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>394913.3853753745</v>
+        <v>394913.3853753741</v>
       </c>
       <c r="E4" t="n">
-        <v>76483.98047465979</v>
+        <v>76483.98047465987</v>
       </c>
       <c r="F4" t="n">
-        <v>56665.34341111052</v>
+        <v>56665.34341111063</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657708</v>
       </c>
       <c r="H4" t="n">
+        <v>93774.13782657705</v>
+      </c>
+      <c r="I4" t="n">
+        <v>93774.13782657708</v>
+      </c>
+      <c r="J4" t="n">
+        <v>94694.05463332697</v>
+      </c>
+      <c r="K4" t="n">
+        <v>94694.05463332694</v>
+      </c>
+      <c r="L4" t="n">
+        <v>94694.05463332692</v>
+      </c>
+      <c r="M4" t="n">
         <v>93774.13782657703</v>
       </c>
-      <c r="I4" t="n">
-        <v>93774.13782657697</v>
-      </c>
-      <c r="J4" t="n">
-        <v>94694.05463332686</v>
-      </c>
-      <c r="K4" t="n">
-        <v>94694.05463332686</v>
-      </c>
-      <c r="L4" t="n">
-        <v>94694.05463332686</v>
-      </c>
-      <c r="M4" t="n">
-        <v>93774.137826577</v>
-      </c>
       <c r="N4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657712</v>
       </c>
       <c r="O4" t="n">
         <v>93774.137826577</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.13782657711</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>38174.79578607953</v>
+        <v>38174.79578607955</v>
       </c>
       <c r="E5" t="n">
-        <v>55358.17228974951</v>
+        <v>55358.17228974952</v>
       </c>
       <c r="F5" t="n">
-        <v>77801.6714704734</v>
+        <v>77801.67147047339</v>
       </c>
       <c r="G5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="H5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="I5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="J5" t="n">
-        <v>88142.59298517081</v>
+        <v>88142.59298517082</v>
       </c>
       <c r="K5" t="n">
         <v>88142.59298517081</v>
@@ -26500,7 +26500,7 @@
         <v>88142.59298517081</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
@@ -26509,7 +26509,7 @@
         <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-337388.2921883235</v>
+        <v>-337392.7057661916</v>
       </c>
       <c r="C6" t="n">
-        <v>-337388.2921883236</v>
+        <v>-337392.7057661917</v>
       </c>
       <c r="D6" t="n">
-        <v>-447856.3588955327</v>
+        <v>-447860.6056038315</v>
       </c>
       <c r="E6" t="n">
-        <v>-718681.6607949736</v>
+        <v>-719107.7972663117</v>
       </c>
       <c r="F6" t="n">
-        <v>-249413.4344577815</v>
+        <v>-249577.4726161752</v>
       </c>
       <c r="G6" t="n">
-        <v>-56970.61352411346</v>
+        <v>-56970.61352411345</v>
       </c>
       <c r="H6" t="n">
-        <v>-12084.38115997023</v>
+        <v>-12084.3811599702</v>
       </c>
       <c r="I6" t="n">
-        <v>-12084.3811599701</v>
+        <v>-12084.38115997032</v>
       </c>
       <c r="J6" t="n">
-        <v>-57871.9957145715</v>
+        <v>-57871.99571457163</v>
       </c>
       <c r="K6" t="n">
-        <v>-18628.29364564127</v>
+        <v>-18628.29364564136</v>
       </c>
       <c r="L6" t="n">
-        <v>-63514.52600978457</v>
+        <v>-63514.52600978433</v>
       </c>
       <c r="M6" t="n">
-        <v>-143989.1905215753</v>
+        <v>-143989.1905215755</v>
       </c>
       <c r="N6" t="n">
-        <v>-82030.42209345091</v>
+        <v>-82030.42209345102</v>
       </c>
       <c r="O6" t="n">
-        <v>-12084.38115997022</v>
+        <v>-12084.38115997013</v>
       </c>
       <c r="P6" t="n">
-        <v>-12084.38115997011</v>
+        <v>-12084.38115997033</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G2" t="n">
+        <v>97.68472022810501</v>
+      </c>
+      <c r="H2" t="n">
         <v>97.68472022810499</v>
       </c>
-      <c r="H2" t="n">
-        <v>97.68472022810501</v>
-      </c>
       <c r="I2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="J2" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="K2" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="L2" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810495</v>
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>208.5869626641985</v>
+        <v>208.5869626641997</v>
       </c>
       <c r="E3" t="n">
-        <v>856.7359786149257</v>
+        <v>856.7359786149259</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.8223198497371</v>
+        <v>545.8223198497373</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
-        <v>981.390379547047</v>
+        <v>981.3903795470475</v>
       </c>
       <c r="K4" t="n">
-        <v>981.390379547047</v>
+        <v>981.3903795470474</v>
       </c>
       <c r="L4" t="n">
-        <v>981.390379547047</v>
+        <v>981.3903795470474</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>56.10779045517908</v>
+        <v>56.10779045517901</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56.1077904551791</v>
+        <v>56.10779045517896</v>
       </c>
       <c r="M2" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>208.5869626641985</v>
+        <v>208.5869626641997</v>
       </c>
       <c r="E3" t="n">
-        <v>648.1490159507272</v>
+        <v>648.1490159507263</v>
       </c>
       <c r="F3" t="n">
-        <v>233.0407219783726</v>
+        <v>233.0407219783722</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>545.8223198497371</v>
+        <v>545.8223198497373</v>
       </c>
       <c r="F4" t="n">
-        <v>285.5791355525555</v>
+        <v>285.5791355525552</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>149.9889241447546</v>
+        <v>149.9889241447551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.8333957049828</v>
+        <v>395.8333957049825</v>
       </c>
       <c r="N4" t="n">
-        <v>285.5791355525555</v>
+        <v>285.5791355525554</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>56.10779045517908</v>
+        <v>56.10779045517901</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>545.8223198497371</v>
+        <v>545.8223198497373</v>
       </c>
       <c r="N4" t="n">
-        <v>285.5791355525555</v>
+        <v>285.5791355525552</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,37 +27871,37 @@
         <v>330.8870986730145</v>
       </c>
       <c r="I8" t="n">
-        <v>178.1480548845305</v>
+        <v>178.1480548845303</v>
       </c>
       <c r="J8" t="n">
-        <v>109.8758232305234</v>
+        <v>109.875823230523</v>
       </c>
       <c r="K8" t="n">
-        <v>113.4243481223834</v>
+        <v>113.4243481223828</v>
       </c>
       <c r="L8" t="n">
-        <v>103.438426585543</v>
+        <v>103.4384265855423</v>
       </c>
       <c r="M8" t="n">
-        <v>83.10584927587595</v>
+        <v>83.10584927587516</v>
       </c>
       <c r="N8" t="n">
-        <v>79.79017629777843</v>
+        <v>79.79017629777761</v>
       </c>
       <c r="O8" t="n">
-        <v>88.8135617509833</v>
+        <v>88.81356175098253</v>
       </c>
       <c r="P8" t="n">
-        <v>110.649815997219</v>
+        <v>110.6498159972183</v>
       </c>
       <c r="Q8" t="n">
-        <v>131.7527436858928</v>
+        <v>131.7527436858923</v>
       </c>
       <c r="R8" t="n">
-        <v>162.9115647751172</v>
+        <v>162.9115647751169</v>
       </c>
       <c r="S8" t="n">
-        <v>189.9118267250979</v>
+        <v>189.9118267250978</v>
       </c>
       <c r="T8" t="n">
         <v>219.4251382915182</v>
@@ -27950,34 +27950,34 @@
         <v>107.9023452573779</v>
       </c>
       <c r="I9" t="n">
-        <v>84.0751379536419</v>
+        <v>84.07513795364181</v>
       </c>
       <c r="J9" t="n">
-        <v>84.44921381053933</v>
+        <v>84.44921381053909</v>
       </c>
       <c r="K9" t="n">
-        <v>65.39288987617222</v>
+        <v>65.39288987617182</v>
       </c>
       <c r="L9" t="n">
-        <v>41.13836481108976</v>
+        <v>41.13836481108923</v>
       </c>
       <c r="M9" t="n">
-        <v>28.45413927003014</v>
+        <v>28.45413927002951</v>
       </c>
       <c r="N9" t="n">
-        <v>14.65304888499077</v>
+        <v>14.65304888499013</v>
       </c>
       <c r="O9" t="n">
-        <v>35.84891459873899</v>
+        <v>35.8489145987384</v>
       </c>
       <c r="P9" t="n">
-        <v>48.30026420231255</v>
+        <v>48.30026420231208</v>
       </c>
       <c r="Q9" t="n">
-        <v>82.71087822395704</v>
+        <v>82.71087822395673</v>
       </c>
       <c r="R9" t="n">
-        <v>117.8233054406206</v>
+        <v>117.8233054406204</v>
       </c>
       <c r="S9" t="n">
         <v>163.3495316049427</v>
@@ -28032,31 +28032,31 @@
         <v>144.1389065257309</v>
       </c>
       <c r="J10" t="n">
-        <v>100.402293428913</v>
+        <v>100.4022934289128</v>
       </c>
       <c r="K10" t="n">
-        <v>85.31257976318363</v>
+        <v>85.31257976318341</v>
       </c>
       <c r="L10" t="n">
-        <v>78.96285353680709</v>
+        <v>78.96285353680679</v>
       </c>
       <c r="M10" t="n">
-        <v>79.9640626817235</v>
+        <v>79.96406268172319</v>
       </c>
       <c r="N10" t="n">
-        <v>70.12580114512735</v>
+        <v>70.12580114512704</v>
       </c>
       <c r="O10" t="n">
-        <v>85.29079918130248</v>
+        <v>85.29079918130218</v>
       </c>
       <c r="P10" t="n">
-        <v>92.23552943792637</v>
+        <v>92.23552943792612</v>
       </c>
       <c r="Q10" t="n">
-        <v>120.0083702671519</v>
+        <v>120.0083702671517</v>
       </c>
       <c r="R10" t="n">
-        <v>160.3807501093478</v>
+        <v>160.3807501093477</v>
       </c>
       <c r="S10" t="n">
         <v>217.4614962758695</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="C11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="D11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="E11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="H11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="T11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="U11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="V11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="W11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="X11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Y11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
     </row>
     <row r="12">
@@ -28166,76 +28166,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="C12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="D12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="E12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="H12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="I12" t="n">
-        <v>36.07542309313992</v>
+        <v>36.73811349329306</v>
       </c>
       <c r="J12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="K12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="L12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6626904001557818</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="S12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="T12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="U12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="V12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="W12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="X12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Y12" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="C13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="D13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="E13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="H13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="I13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="J13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="L13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="M13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="N13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="O13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="P13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="R13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="S13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="T13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="U13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="V13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="W13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="X13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="C14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="D14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="E14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="H14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="T14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="U14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="V14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="W14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="X14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Y14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
     </row>
     <row r="15">
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28466,7 +28466,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="C16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="D16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="E16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="F16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="G16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="H16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="I16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="J16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="L16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="M16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="N16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="O16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="P16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="R16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="S16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="T16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="U16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="V16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="W16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="X16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.57692977292592</v>
+        <v>41.576929772926</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="18">
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,40 +28719,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810499</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="M19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>76.32843350415985</v>
+        <v>86.41330088048397</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810499</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="21">
@@ -28892,7 +28892,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68472022810501</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810501</v>
+        <v>86.41330088048403</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M22" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q22" t="n">
-        <v>76.32843350415881</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810501</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29074,7 +29074,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="24">
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810501</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="M25" t="n">
-        <v>76.32843350415911</v>
+        <v>86.41330088048403</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810501</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="C26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="D26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="E26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="F26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="G26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="H26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="I26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="J26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="K26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="L26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="M26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="N26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="O26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="P26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="R26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="S26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="T26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="U26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="V26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="W26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="X26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="Y26" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
     </row>
     <row r="27">
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="C28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="D28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="E28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="F28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="G28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="H28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="I28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="J28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="K28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="L28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="M28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="N28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="O28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="P28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="Q28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="R28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="S28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="T28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="U28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="V28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="W28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="X28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="C29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="D29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="E29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="F29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="G29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="H29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="I29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="J29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="K29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="L29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="M29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="N29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="O29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="P29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="R29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="S29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="T29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="U29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="V29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="W29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="X29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="Y29" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
     </row>
     <row r="30">
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="C31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="D31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="E31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="F31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="G31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="H31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="I31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="J31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="K31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="L31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="M31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="N31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="O31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="P31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="Q31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="R31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="S31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="T31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="U31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="V31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="W31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="X31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.10779045517909</v>
+        <v>56.10779045517899</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="C32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="D32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="E32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="F32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="G32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="H32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="I32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="J32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="K32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="L32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="M32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="N32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="O32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="P32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="R32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="S32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="T32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="U32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="V32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="W32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="X32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="Y32" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="C34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="D34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="E34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="F34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="G34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="H34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="I34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="J34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="K34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="L34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="M34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="N34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="O34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="P34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="Q34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="R34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="S34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="T34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="U34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="V34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="W34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="X34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.10779045517911</v>
+        <v>56.10779045517894</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.051603248924948e-12</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30162,16 +30162,16 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68472022810495</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="L37" t="n">
-        <v>97.68472022810495</v>
+        <v>77.66073332242729</v>
       </c>
       <c r="M37" t="n">
         <v>97.68472022810495</v>
@@ -30183,10 +30183,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q37" t="n">
-        <v>76.32843350416019</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R37" t="n">
         <v>97.68472022810495</v>
@@ -30241,7 +30241,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292761</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30314,7 +30314,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30408,22 +30408,22 @@
         <v>97.68472022810495</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M40" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>76.32843350416073</v>
       </c>
       <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>97.68472022810495</v>
-      </c>
-      <c r="P40" t="n">
-        <v>97.68472022810495</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>76.32843350416019</v>
       </c>
       <c r="R40" t="n">
         <v>97.68472022810495</v>
@@ -30526,7 +30526,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="42">
@@ -30639,13 +30639,13 @@
         <v>97.68472022810495</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="L43" t="n">
-        <v>76.32843350416036</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>97.68472022810495</v>
@@ -30654,10 +30654,10 @@
         <v>97.68472022810495</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>76.32843350416013</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q43" t="n">
         <v>97.68472022810495</v>
@@ -30715,7 +30715,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292761</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,7 +30824,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -30876,19 +30876,19 @@
         <v>97.68472022810495</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K46" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="L46" t="n">
-        <v>76.32843350416002</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810495</v>
+        <v>76.3284335041605</v>
       </c>
       <c r="O46" t="n">
         <v>97.68472022810495</v>
@@ -30897,7 +30897,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R46" t="n">
         <v>97.68472022810495</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.838540553423913</v>
+        <v>0.8385405534239176</v>
       </c>
       <c r="H8" t="n">
-        <v>8.587703442752652</v>
+        <v>8.587703442752698</v>
       </c>
       <c r="I8" t="n">
-        <v>32.32783468587544</v>
+        <v>32.32783468587562</v>
       </c>
       <c r="J8" t="n">
-        <v>71.17008129616291</v>
+        <v>71.17008129616329</v>
       </c>
       <c r="K8" t="n">
-        <v>106.6655029225972</v>
+        <v>106.6655029225977</v>
       </c>
       <c r="L8" t="n">
-        <v>132.3279883844443</v>
+        <v>132.327988384445</v>
       </c>
       <c r="M8" t="n">
-        <v>147.2403839513968</v>
+        <v>147.2403839513976</v>
       </c>
       <c r="N8" t="n">
-        <v>149.6228872988125</v>
+        <v>149.6228872988133</v>
       </c>
       <c r="O8" t="n">
-        <v>141.2846496707034</v>
+        <v>141.2846496707042</v>
       </c>
       <c r="P8" t="n">
-        <v>120.5831797580506</v>
+        <v>120.5831797580512</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.55294618855665</v>
+        <v>90.55294618855714</v>
       </c>
       <c r="R8" t="n">
-        <v>52.67397303901492</v>
+        <v>52.67397303901521</v>
       </c>
       <c r="S8" t="n">
-        <v>19.10824286114744</v>
+        <v>19.10824286114754</v>
       </c>
       <c r="T8" t="n">
-        <v>3.670711272613181</v>
+        <v>3.670711272613201</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06708324427391303</v>
+        <v>0.06708324427391339</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4486587498814836</v>
+        <v>0.4486587498814861</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33309897911854</v>
+        <v>4.333098979118564</v>
       </c>
       <c r="I9" t="n">
-        <v>15.4472420463581</v>
+        <v>15.44724204635818</v>
       </c>
       <c r="J9" t="n">
-        <v>42.38841285612737</v>
+        <v>42.3884128561276</v>
       </c>
       <c r="K9" t="n">
-        <v>72.44854909818677</v>
+        <v>72.44854909818717</v>
       </c>
       <c r="L9" t="n">
-        <v>97.41601496878442</v>
+        <v>97.41601496878495</v>
       </c>
       <c r="M9" t="n">
-        <v>113.6798946519882</v>
+        <v>113.6798946519888</v>
       </c>
       <c r="N9" t="n">
-        <v>116.6886631983425</v>
+        <v>116.6886631983432</v>
       </c>
       <c r="O9" t="n">
-        <v>106.7473298457055</v>
+        <v>106.747329845706</v>
       </c>
       <c r="P9" t="n">
-        <v>85.6741432120177</v>
+        <v>85.67414321201817</v>
       </c>
       <c r="Q9" t="n">
-        <v>57.27089586206448</v>
+        <v>57.27089586206479</v>
       </c>
       <c r="R9" t="n">
-        <v>27.85619852334336</v>
+        <v>27.8561985233435</v>
       </c>
       <c r="S9" t="n">
-        <v>8.333639498895096</v>
+        <v>8.333639498895142</v>
       </c>
       <c r="T9" t="n">
-        <v>1.808409610267909</v>
+        <v>1.808409610267919</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02951702301851867</v>
+        <v>0.02951702301851883</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3761404244764235</v>
+        <v>0.3761404244764256</v>
       </c>
       <c r="H10" t="n">
-        <v>3.34423031943584</v>
+        <v>3.344230319435859</v>
       </c>
       <c r="I10" t="n">
-        <v>11.31156840152736</v>
+        <v>11.31156840152742</v>
       </c>
       <c r="J10" t="n">
-        <v>26.59312801048314</v>
+        <v>26.59312801048329</v>
       </c>
       <c r="K10" t="n">
-        <v>43.70067840735175</v>
+        <v>43.70067840735198</v>
       </c>
       <c r="L10" t="n">
-        <v>55.9218227444312</v>
+        <v>55.9218227444315</v>
       </c>
       <c r="M10" t="n">
-        <v>58.96172126588154</v>
+        <v>58.96172126588187</v>
       </c>
       <c r="N10" t="n">
-        <v>57.55974332010583</v>
+        <v>57.55974332010614</v>
       </c>
       <c r="O10" t="n">
-        <v>53.16573927054032</v>
+        <v>53.16573927054061</v>
       </c>
       <c r="P10" t="n">
-        <v>45.49247461122124</v>
+        <v>45.49247461122149</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.49663136229398</v>
+        <v>31.49663136229415</v>
       </c>
       <c r="R10" t="n">
-        <v>16.91264126782173</v>
+        <v>16.91264126782182</v>
       </c>
       <c r="S10" t="n">
-        <v>6.55510176110276</v>
+        <v>6.555101761102796</v>
       </c>
       <c r="T10" t="n">
-        <v>1.607145450035627</v>
+        <v>1.607145450035636</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02051675042598676</v>
+        <v>0.02051675042598687</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,46 +31753,46 @@
         <v>3.444164738150453</v>
       </c>
       <c r="H11" t="n">
-        <v>35.27255212458333</v>
+        <v>35.27255212458334</v>
       </c>
       <c r="I11" t="n">
-        <v>132.7811610675454</v>
+        <v>132.7811610675455</v>
       </c>
       <c r="J11" t="n">
-        <v>292.3191769445972</v>
+        <v>292.3191769445973</v>
       </c>
       <c r="K11" t="n">
-        <v>438.110670310506</v>
+        <v>438.1106703105061</v>
       </c>
       <c r="L11" t="n">
-        <v>543.5150269156779</v>
+        <v>543.5150269156782</v>
       </c>
       <c r="M11" t="n">
-        <v>604.765191577761</v>
+        <v>604.7651915777612</v>
       </c>
       <c r="N11" t="n">
-        <v>614.5509246400311</v>
+        <v>614.5509246400312</v>
       </c>
       <c r="O11" t="n">
-        <v>580.3030115250475</v>
+        <v>580.3030115250476</v>
       </c>
       <c r="P11" t="n">
-        <v>495.2751945519581</v>
+        <v>495.2751945519582</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.9310448669449</v>
+        <v>371.931044866945</v>
       </c>
       <c r="R11" t="n">
-        <v>216.3495132328435</v>
+        <v>216.3495132328436</v>
       </c>
       <c r="S11" t="n">
-        <v>78.48390397060351</v>
+        <v>78.48390397060354</v>
       </c>
       <c r="T11" t="n">
-        <v>15.07683114125361</v>
+        <v>15.07683114125362</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2755331790520361</v>
+        <v>0.2755331790520362</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,31 +31832,31 @@
         <v>1.84279059551135</v>
       </c>
       <c r="H12" t="n">
-        <v>17.79747759349119</v>
+        <v>17.7974775934912</v>
       </c>
       <c r="I12" t="n">
-        <v>63.44695690686007</v>
+        <v>63.44695690686009</v>
       </c>
       <c r="J12" t="n">
         <v>174.1032992013596</v>
       </c>
       <c r="K12" t="n">
-        <v>297.57026910062</v>
+        <v>297.5702691006201</v>
       </c>
       <c r="L12" t="n">
-        <v>400.1199492578481</v>
+        <v>400.1199492578482</v>
       </c>
       <c r="M12" t="n">
-        <v>466.9211083451344</v>
+        <v>466.9211083451345</v>
       </c>
       <c r="N12" t="n">
-        <v>479.2791207159102</v>
+        <v>479.2791207159103</v>
       </c>
       <c r="O12" t="n">
-        <v>438.4467606785271</v>
+        <v>438.4467606785272</v>
       </c>
       <c r="P12" t="n">
-        <v>351.8921795937418</v>
+        <v>351.892179593742</v>
       </c>
       <c r="Q12" t="n">
         <v>235.2306030340453</v>
@@ -31868,10 +31868,10 @@
         <v>34.22902707013404</v>
       </c>
       <c r="T12" t="n">
-        <v>7.427739286293551</v>
+        <v>7.427739286293553</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1212362233889046</v>
+        <v>0.1212362233889047</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.544933731928554</v>
+        <v>1.544933731928555</v>
       </c>
       <c r="H13" t="n">
         <v>13.7358653620557</v>
       </c>
       <c r="I13" t="n">
-        <v>46.46037077472418</v>
+        <v>46.46037077472419</v>
       </c>
       <c r="J13" t="n">
         <v>109.2268148473488</v>
@@ -31929,10 +31929,10 @@
         <v>242.1753849058551</v>
       </c>
       <c r="N13" t="n">
-        <v>236.4169955413943</v>
+        <v>236.4169955413944</v>
       </c>
       <c r="O13" t="n">
-        <v>218.369360582047</v>
+        <v>218.3693605820471</v>
       </c>
       <c r="P13" t="n">
         <v>186.8527124507044</v>
@@ -31941,16 +31941,16 @@
         <v>129.3671327708538</v>
       </c>
       <c r="R13" t="n">
-        <v>69.46583852835116</v>
+        <v>69.46583852835118</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92398149188216</v>
+        <v>26.92398149188217</v>
       </c>
       <c r="T13" t="n">
-        <v>6.601080490967457</v>
+        <v>6.601080490967459</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08426911265064851</v>
+        <v>0.08426911265064854</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34144,7 +34144,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099063</v>
       </c>
       <c r="P41" t="n">
         <v>629.9949819746414</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>111.273272417911</v>
       </c>
       <c r="K11" t="n">
-        <v>218.0208192655254</v>
+        <v>218.0208192655255</v>
       </c>
       <c r="L11" t="n">
-        <v>307.7486119456907</v>
+        <v>307.7486119456909</v>
       </c>
       <c r="M11" t="n">
-        <v>374.4189583504883</v>
+        <v>374.4189583504885</v>
       </c>
       <c r="N11" t="n">
-        <v>385.1378610434402</v>
+        <v>385.1378610434403</v>
       </c>
       <c r="O11" t="n">
-        <v>350.2048001033608</v>
+        <v>350.2048001033609</v>
       </c>
       <c r="P11" t="n">
-        <v>264.0421987966886</v>
+        <v>264.0421987966887</v>
       </c>
       <c r="Q11" t="n">
         <v>149.6253549924955</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7639754187114249</v>
+        <v>0.7639754187114818</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.6626904001531558</v>
       </c>
       <c r="J12" t="n">
-        <v>88.84260230761882</v>
+        <v>88.84260230761896</v>
       </c>
       <c r="K12" t="n">
-        <v>201.3057598991869</v>
+        <v>201.3057598991871</v>
       </c>
       <c r="L12" t="n">
-        <v>303.1424992508998</v>
+        <v>303.1424992509001</v>
       </c>
       <c r="M12" t="n">
-        <v>324.7870744231161</v>
+        <v>324.7870744231162</v>
       </c>
       <c r="N12" t="n">
-        <v>348.6000990327327</v>
+        <v>347.937408632577</v>
       </c>
       <c r="O12" t="n">
-        <v>295.8505162340826</v>
+        <v>295.8505162340828</v>
       </c>
       <c r="P12" t="n">
-        <v>259.4947019523376</v>
+        <v>259.4947019523377</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.24882894802377</v>
+        <v>95.24882894802383</v>
       </c>
       <c r="R12" t="n">
-        <v>10.31209102851756</v>
+        <v>10.31209102851767</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.44456450360193</v>
+        <v>57.44456450360205</v>
       </c>
       <c r="K13" t="n">
-        <v>198.8006478929242</v>
+        <v>198.8006478929243</v>
       </c>
       <c r="L13" t="n">
-        <v>298.8564664146928</v>
+        <v>298.856466414693</v>
       </c>
       <c r="M13" t="n">
-        <v>323.3361916406216</v>
+        <v>323.3361916406217</v>
       </c>
       <c r="N13" t="n">
-        <v>322.1260976935488</v>
+        <v>322.126097693549</v>
       </c>
       <c r="O13" t="n">
-        <v>284.5314182690126</v>
+        <v>284.5314182690128</v>
       </c>
       <c r="P13" t="n">
-        <v>225.7082014885238</v>
+        <v>225.7082014885239</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.78201929208529</v>
+        <v>84.78201929208541</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.15534638599215</v>
+        <v>87.1553463859922</v>
       </c>
       <c r="K16" t="n">
         <v>247.6245893172455</v>
       </c>
       <c r="L16" t="n">
-        <v>361.334301943124</v>
+        <v>361.3343019431241</v>
       </c>
       <c r="M16" t="n">
-        <v>389.2103091664097</v>
+        <v>389.2103091664098</v>
       </c>
       <c r="N16" t="n">
         <v>386.433875940466</v>
@@ -35820,7 +35820,7 @@
         <v>343.9300599955657</v>
       </c>
       <c r="P16" t="n">
-        <v>276.5340009180363</v>
+        <v>276.5340009180364</v>
       </c>
       <c r="Q16" t="n">
         <v>119.9711683108196</v>
@@ -36036,7 +36036,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.332299818266883</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>109.6268955184479</v>
@@ -36057,13 +36057,13 @@
         <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>176.2789413352291</v>
+        <v>186.3638087115532</v>
       </c>
       <c r="Q19" t="n">
         <v>110.7360003882472</v>
       </c>
       <c r="R19" t="n">
-        <v>8.752567558057649</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36273,34 +36273,34 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.332299818266911</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
-        <v>196.9886134277721</v>
+        <v>185.717194080151</v>
       </c>
       <c r="L22" t="n">
-        <v>254.9673908567487</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M22" t="n">
-        <v>266.8084387121432</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P22" t="n">
         <v>197.6352280591743</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.37971366430101</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R22" t="n">
-        <v>8.752567558057677</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882178</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36510,22 +36510,22 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332299818266911</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K25" t="n">
-        <v>196.9886134277721</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M25" t="n">
-        <v>245.4521519881973</v>
+        <v>255.5370193645222</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511833</v>
+        <v>270.7239495511832</v>
       </c>
       <c r="O25" t="n">
         <v>236.9961840848623</v>
@@ -36537,7 +36537,7 @@
         <v>110.7360003882472</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057677</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>14.53086068225315</v>
+        <v>14.53086068225301</v>
       </c>
       <c r="J26" t="n">
-        <v>246.8947914238917</v>
+        <v>255.5729347997622</v>
       </c>
       <c r="K26" t="n">
-        <v>393.2990770105796</v>
+        <v>393.2990770105794</v>
       </c>
       <c r="L26" t="n">
-        <v>511.6979048475113</v>
+        <v>511.6979048475109</v>
       </c>
       <c r="M26" t="n">
-        <v>595.0289062854058</v>
+        <v>595.0289062854055</v>
       </c>
       <c r="N26" t="n">
-        <v>608.4096258680905</v>
+        <v>608.4096258680903</v>
       </c>
       <c r="O26" t="n">
-        <v>564.1607913433983</v>
+        <v>564.160791343398</v>
       </c>
       <c r="P26" t="n">
-        <v>454.869776674551</v>
+        <v>454.8697766745506</v>
       </c>
       <c r="Q26" t="n">
-        <v>381.2966585077475</v>
+        <v>306.9020952588984</v>
       </c>
       <c r="R26" t="n">
-        <v>115.7209889974039</v>
+        <v>181.4374088703862</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>68.04996574552197</v>
+        <v>101.6862070682452</v>
       </c>
       <c r="K28" t="n">
-        <v>155.4116836548461</v>
+        <v>155.411683654846</v>
       </c>
       <c r="L28" t="n">
-        <v>375.8651626253773</v>
+        <v>375.865162625377</v>
       </c>
       <c r="M28" t="n">
-        <v>403.7411698486629</v>
+        <v>403.7411698486628</v>
       </c>
       <c r="N28" t="n">
-        <v>400.9647366227192</v>
+        <v>350.9008914162492</v>
       </c>
       <c r="O28" t="n">
-        <v>342.0333167940686</v>
+        <v>358.4609206778187</v>
       </c>
       <c r="P28" t="n">
-        <v>291.0648616002895</v>
+        <v>291.0648616002894</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.1590706153213</v>
+        <v>69.15907061532116</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>14.53086068225315</v>
+        <v>14.53086068225301</v>
       </c>
       <c r="J29" t="n">
-        <v>246.8947914238917</v>
+        <v>255.5729347997618</v>
       </c>
       <c r="K29" t="n">
-        <v>393.2990770105796</v>
+        <v>393.2990770105794</v>
       </c>
       <c r="L29" t="n">
-        <v>511.6979048475113</v>
+        <v>511.6979048475109</v>
       </c>
       <c r="M29" t="n">
-        <v>595.0289062854058</v>
+        <v>595.0289062854055</v>
       </c>
       <c r="N29" t="n">
-        <v>608.4096258680905</v>
+        <v>608.4096258680903</v>
       </c>
       <c r="O29" t="n">
-        <v>638.5553545922471</v>
+        <v>564.160791343398</v>
       </c>
       <c r="P29" t="n">
-        <v>454.869776674551</v>
+        <v>454.8697766745506</v>
       </c>
       <c r="Q29" t="n">
-        <v>306.9020952588986</v>
+        <v>306.9020952588984</v>
       </c>
       <c r="R29" t="n">
-        <v>115.7209889974039</v>
+        <v>181.4374088703862</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.6862070682453</v>
+        <v>68.04996574552185</v>
       </c>
       <c r="K31" t="n">
-        <v>262.1554499994987</v>
+        <v>262.1554499994985</v>
       </c>
       <c r="L31" t="n">
-        <v>213.3904610838228</v>
+        <v>375.865162625377</v>
       </c>
       <c r="M31" t="n">
-        <v>403.7411698486629</v>
+        <v>225.2315089392171</v>
       </c>
       <c r="N31" t="n">
-        <v>400.9647366227192</v>
+        <v>390.9600689260145</v>
       </c>
       <c r="O31" t="n">
-        <v>298.7850522904959</v>
+        <v>358.4609206778187</v>
       </c>
       <c r="P31" t="n">
-        <v>291.0648616002895</v>
+        <v>291.0648616002894</v>
       </c>
       <c r="Q31" t="n">
-        <v>134.5020289930727</v>
+        <v>134.5020289930726</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>14.53086068225315</v>
+        <v>14.53086068225295</v>
       </c>
       <c r="J32" t="n">
-        <v>246.8947914238917</v>
+        <v>255.5729347997625</v>
       </c>
       <c r="K32" t="n">
-        <v>393.2990770105796</v>
+        <v>393.2990770105793</v>
       </c>
       <c r="L32" t="n">
-        <v>511.6979048475113</v>
+        <v>511.6979048475109</v>
       </c>
       <c r="M32" t="n">
-        <v>595.0289062854058</v>
+        <v>595.0289062854055</v>
       </c>
       <c r="N32" t="n">
-        <v>608.4096258680905</v>
+        <v>608.4096258680902</v>
       </c>
       <c r="O32" t="n">
-        <v>564.1607913433983</v>
+        <v>564.1607913433979</v>
       </c>
       <c r="P32" t="n">
-        <v>529.2643399233995</v>
+        <v>454.8697766745506</v>
       </c>
       <c r="Q32" t="n">
-        <v>306.9020952588986</v>
+        <v>306.9020952588984</v>
       </c>
       <c r="R32" t="n">
-        <v>115.7209889974039</v>
+        <v>181.4374088703861</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.6862070682453</v>
+        <v>68.0499657455218</v>
       </c>
       <c r="K34" t="n">
-        <v>262.1554499994987</v>
+        <v>262.1554499994984</v>
       </c>
       <c r="L34" t="n">
-        <v>375.8651626253773</v>
+        <v>375.865162625377</v>
       </c>
       <c r="M34" t="n">
-        <v>403.7411698486629</v>
+        <v>403.7411698486627</v>
       </c>
       <c r="N34" t="n">
-        <v>379.1636883856337</v>
+        <v>400.964736622719</v>
       </c>
       <c r="O34" t="n">
-        <v>358.4609206778189</v>
+        <v>304.9531553857104</v>
       </c>
       <c r="P34" t="n">
-        <v>156.0582982862484</v>
+        <v>156.0582982862482</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.15907061532131</v>
+        <v>134.5020289930726</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37458,16 +37458,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266854</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>254.9673908567486</v>
+        <v>234.9434039510709</v>
       </c>
       <c r="M37" t="n">
         <v>266.8084387121431</v>
@@ -37479,13 +37479,13 @@
         <v>139.3114638567573</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.37971366430239</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266854</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J40" t="n">
         <v>109.6268955184478</v>
@@ -37704,25 +37704,25 @@
         <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286437</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230783</v>
+        <v>249.367662827239</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591743</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q40" t="n">
-        <v>89.37971366430239</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37935,13 +37935,13 @@
         <v>1.332299818266854</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>233.6111041328041</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
         <v>266.8084387121431</v>
@@ -37950,10 +37950,10 @@
         <v>270.7239495511832</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567573</v>
+        <v>215.6398973609174</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q43" t="n">
         <v>110.7360003882471</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266854</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K46" t="n">
         <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>233.6111041328037</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511832</v>
+        <v>249.3676628272387</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P46" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057621</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
